--- a/python/script/Aiops/日志平台组件进程监控列表.xlsx
+++ b/python/script/Aiops/日志平台组件进程监控列表.xlsx
@@ -9,14 +9,18 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="台账" sheetId="2" r:id="rId2"/>
+    <sheet name="导出计数_description" sheetId="3" r:id="rId2"/>
+    <sheet name="台账" sheetId="2" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$E$1:$E$139</definedName>
+  </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1870" uniqueCount="440">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1917" uniqueCount="441">
   <si>
     <t>IP</t>
   </si>
@@ -667,6 +671,9 @@
   </si>
   <si>
     <t>用户iops下名为score_main.py的进程cpu使用率</t>
+  </si>
+  <si>
+    <t>计数</t>
   </si>
   <si>
     <t>平台</t>
@@ -1343,19 +1350,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1368,6 +1368,119 @@
       <sz val="11"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1387,73 +1500,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -1463,53 +1509,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1554,13 +1554,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1572,7 +1572,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1584,31 +1650,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1620,13 +1674,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1644,79 +1716,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1728,13 +1734,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1813,17 +1813,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1843,6 +1837,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1854,15 +1863,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1890,8 +1890,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1916,10 +1916,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1928,133 +1928,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2130,8 +2130,8 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -2483,7 +2483,7 @@
   <dimension ref="A1:F139"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
@@ -3956,663 +3956,663 @@
         <v>15</v>
       </c>
     </row>
-    <row r="74" spans="1:6">
-      <c r="A74" t="s">
+    <row r="74" s="25" customFormat="1" spans="1:6">
+      <c r="A74" s="25" t="s">
         <v>132</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B74" s="25" t="s">
         <v>133</v>
       </c>
-      <c r="C74" t="s">
+      <c r="C74" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="D74" t="s">
+      <c r="D74" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="E74" t="s">
+      <c r="E74" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="F74" t="s">
+      <c r="F74" s="25" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="75" spans="1:6">
-      <c r="A75" t="s">
+    <row r="75" s="25" customFormat="1" spans="1:6">
+      <c r="A75" s="25" t="s">
         <v>132</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B75" s="25" t="s">
         <v>133</v>
       </c>
-      <c r="C75" t="s">
+      <c r="C75" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="D75" t="s">
+      <c r="D75" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="E75" t="s">
+      <c r="E75" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="F75" t="s">
+      <c r="F75" s="25" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="76" spans="1:6">
-      <c r="A76" t="s">
+    <row r="76" s="25" customFormat="1" spans="1:6">
+      <c r="A76" s="25" t="s">
         <v>132</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B76" s="25" t="s">
         <v>133</v>
       </c>
-      <c r="C76" t="s">
+      <c r="C76" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="D76" t="s">
+      <c r="D76" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="E76" t="s">
+      <c r="E76" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="F76" t="s">
+      <c r="F76" s="25" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="77" spans="1:6">
-      <c r="A77" t="s">
+    <row r="77" s="25" customFormat="1" spans="1:6">
+      <c r="A77" s="25" t="s">
         <v>132</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B77" s="25" t="s">
         <v>133</v>
       </c>
-      <c r="C77" t="s">
+      <c r="C77" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="D77" t="s">
+      <c r="D77" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="E77" t="s">
+      <c r="E77" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="F77" t="s">
+      <c r="F77" s="25" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="78" spans="1:6">
-      <c r="A78" t="s">
+    <row r="78" s="25" customFormat="1" spans="1:6">
+      <c r="A78" s="25" t="s">
         <v>132</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B78" s="25" t="s">
         <v>133</v>
       </c>
-      <c r="C78" t="s">
+      <c r="C78" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="D78" t="s">
+      <c r="D78" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="E78" t="s">
+      <c r="E78" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="F78" t="s">
+      <c r="F78" s="25" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="79" spans="1:6">
-      <c r="A79" t="s">
+    <row r="79" s="25" customFormat="1" spans="1:6">
+      <c r="A79" s="25" t="s">
         <v>132</v>
       </c>
-      <c r="B79" t="s">
+      <c r="B79" s="25" t="s">
         <v>133</v>
       </c>
-      <c r="C79" t="s">
+      <c r="C79" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="D79" t="s">
+      <c r="D79" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="E79" t="s">
+      <c r="E79" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="F79" t="s">
+      <c r="F79" s="25" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="80" spans="1:6">
-      <c r="A80" t="s">
+    <row r="80" s="25" customFormat="1" spans="1:6">
+      <c r="A80" s="25" t="s">
         <v>132</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B80" s="25" t="s">
         <v>133</v>
       </c>
-      <c r="C80" t="s">
+      <c r="C80" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="D80" t="s">
+      <c r="D80" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="E80" t="s">
+      <c r="E80" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="F80" t="s">
+      <c r="F80" s="25" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="81" spans="1:6">
-      <c r="A81" t="s">
+    <row r="81" s="25" customFormat="1" spans="1:6">
+      <c r="A81" s="25" t="s">
         <v>132</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B81" s="25" t="s">
         <v>133</v>
       </c>
-      <c r="C81" t="s">
+      <c r="C81" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="D81" t="s">
+      <c r="D81" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="E81" t="s">
+      <c r="E81" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="F81" t="s">
+      <c r="F81" s="25" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="82" spans="1:6">
-      <c r="A82" t="s">
+    <row r="82" s="25" customFormat="1" spans="1:6">
+      <c r="A82" s="25" t="s">
         <v>132</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B82" s="25" t="s">
         <v>133</v>
       </c>
-      <c r="C82" t="s">
+      <c r="C82" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="D82" t="s">
+      <c r="D82" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="E82" t="s">
+      <c r="E82" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="F82" t="s">
+      <c r="F82" s="25" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="83" spans="1:6">
-      <c r="A83" t="s">
+    <row r="83" s="25" customFormat="1" spans="1:6">
+      <c r="A83" s="25" t="s">
         <v>134</v>
       </c>
-      <c r="B83" t="s">
+      <c r="B83" s="25" t="s">
         <v>135</v>
       </c>
-      <c r="C83" t="s">
+      <c r="C83" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="D83" t="s">
+      <c r="D83" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="E83" t="s">
+      <c r="E83" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="F83" t="s">
+      <c r="F83" s="25" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="84" spans="1:6">
-      <c r="A84" t="s">
+    <row r="84" s="25" customFormat="1" spans="1:6">
+      <c r="A84" s="25" t="s">
         <v>134</v>
       </c>
-      <c r="B84" t="s">
+      <c r="B84" s="25" t="s">
         <v>135</v>
       </c>
-      <c r="C84" t="s">
+      <c r="C84" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="D84" t="s">
+      <c r="D84" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="E84" t="s">
+      <c r="E84" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="F84" t="s">
+      <c r="F84" s="25" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="85" spans="1:6">
-      <c r="A85" t="s">
+    <row r="85" s="25" customFormat="1" spans="1:6">
+      <c r="A85" s="25" t="s">
         <v>134</v>
       </c>
-      <c r="B85" t="s">
+      <c r="B85" s="25" t="s">
         <v>135</v>
       </c>
-      <c r="C85" t="s">
+      <c r="C85" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="D85" t="s">
+      <c r="D85" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="E85" t="s">
+      <c r="E85" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="F85" t="s">
+      <c r="F85" s="25" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="86" spans="1:6">
-      <c r="A86" t="s">
+    <row r="86" s="25" customFormat="1" spans="1:6">
+      <c r="A86" s="25" t="s">
         <v>134</v>
       </c>
-      <c r="B86" t="s">
+      <c r="B86" s="25" t="s">
         <v>135</v>
       </c>
-      <c r="C86" t="s">
+      <c r="C86" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="D86" t="s">
+      <c r="D86" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="E86" t="s">
+      <c r="E86" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="F86" t="s">
+      <c r="F86" s="25" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="87" spans="1:6">
-      <c r="A87" t="s">
+    <row r="87" s="25" customFormat="1" spans="1:6">
+      <c r="A87" s="25" t="s">
         <v>134</v>
       </c>
-      <c r="B87" t="s">
+      <c r="B87" s="25" t="s">
         <v>135</v>
       </c>
-      <c r="C87" t="s">
+      <c r="C87" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="D87" t="s">
+      <c r="D87" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="E87" t="s">
+      <c r="E87" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="F87" t="s">
+      <c r="F87" s="25" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="88" spans="1:6">
-      <c r="A88" t="s">
+    <row r="88" s="25" customFormat="1" spans="1:6">
+      <c r="A88" s="25" t="s">
         <v>134</v>
       </c>
-      <c r="B88" t="s">
+      <c r="B88" s="25" t="s">
         <v>135</v>
       </c>
-      <c r="C88" t="s">
+      <c r="C88" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="D88" t="s">
+      <c r="D88" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="E88" t="s">
+      <c r="E88" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="F88" t="s">
+      <c r="F88" s="25" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="89" spans="1:6">
-      <c r="A89" t="s">
+    <row r="89" s="25" customFormat="1" spans="1:6">
+      <c r="A89" s="25" t="s">
         <v>134</v>
       </c>
-      <c r="B89" t="s">
+      <c r="B89" s="25" t="s">
         <v>135</v>
       </c>
-      <c r="C89" t="s">
+      <c r="C89" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="D89" t="s">
+      <c r="D89" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="E89" t="s">
+      <c r="E89" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="F89" t="s">
+      <c r="F89" s="25" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="90" spans="1:6">
-      <c r="A90" t="s">
+    <row r="90" s="25" customFormat="1" spans="1:6">
+      <c r="A90" s="25" t="s">
         <v>134</v>
       </c>
-      <c r="B90" t="s">
+      <c r="B90" s="25" t="s">
         <v>135</v>
       </c>
-      <c r="C90" t="s">
+      <c r="C90" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="D90" t="s">
+      <c r="D90" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="E90" t="s">
+      <c r="E90" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="F90" t="s">
+      <c r="F90" s="25" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="91" spans="1:6">
-      <c r="A91" t="s">
+    <row r="91" s="25" customFormat="1" spans="1:6">
+      <c r="A91" s="25" t="s">
         <v>134</v>
       </c>
-      <c r="B91" t="s">
+      <c r="B91" s="25" t="s">
         <v>135</v>
       </c>
-      <c r="C91" t="s">
+      <c r="C91" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="D91" t="s">
+      <c r="D91" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="E91" t="s">
+      <c r="E91" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="F91" t="s">
+      <c r="F91" s="25" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="92" spans="1:6">
-      <c r="A92" t="s">
+    <row r="92" s="25" customFormat="1" spans="1:6">
+      <c r="A92" s="25" t="s">
         <v>136</v>
       </c>
-      <c r="B92" t="s">
+      <c r="B92" s="25" t="s">
         <v>137</v>
       </c>
-      <c r="C92" t="s">
+      <c r="C92" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="D92" t="s">
+      <c r="D92" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="E92" t="s">
+      <c r="E92" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="F92" t="s">
+      <c r="F92" s="25" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="93" spans="1:6">
-      <c r="A93" t="s">
+    <row r="93" s="25" customFormat="1" spans="1:6">
+      <c r="A93" s="25" t="s">
         <v>136</v>
       </c>
-      <c r="B93" t="s">
+      <c r="B93" s="25" t="s">
         <v>137</v>
       </c>
-      <c r="C93" t="s">
+      <c r="C93" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="D93" t="s">
+      <c r="D93" s="25" t="s">
         <v>81</v>
       </c>
-      <c r="E93" t="s">
+      <c r="E93" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="F93" t="s">
+      <c r="F93" s="25" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="94" spans="1:6">
-      <c r="A94" t="s">
+    <row r="94" s="25" customFormat="1" spans="1:6">
+      <c r="A94" s="25" t="s">
         <v>136</v>
       </c>
-      <c r="B94" t="s">
+      <c r="B94" s="25" t="s">
         <v>137</v>
       </c>
-      <c r="C94" t="s">
+      <c r="C94" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="D94" t="s">
+      <c r="D94" s="25" t="s">
         <v>84</v>
       </c>
-      <c r="E94" t="s">
+      <c r="E94" s="25" t="s">
         <v>85</v>
       </c>
-      <c r="F94" t="s">
+      <c r="F94" s="25" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="95" spans="1:6">
-      <c r="A95" t="s">
+    <row r="95" s="25" customFormat="1" spans="1:6">
+      <c r="A95" s="25" t="s">
         <v>138</v>
       </c>
-      <c r="B95" t="s">
+      <c r="B95" s="25" t="s">
         <v>139</v>
       </c>
-      <c r="C95" t="s">
+      <c r="C95" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="D95" t="s">
+      <c r="D95" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="E95" t="s">
+      <c r="E95" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="F95" t="s">
+      <c r="F95" s="25" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="96" spans="1:6">
-      <c r="A96" t="s">
+    <row r="96" s="25" customFormat="1" spans="1:6">
+      <c r="A96" s="25" t="s">
         <v>138</v>
       </c>
-      <c r="B96" t="s">
+      <c r="B96" s="25" t="s">
         <v>139</v>
       </c>
-      <c r="C96" t="s">
+      <c r="C96" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="D96" t="s">
+      <c r="D96" s="25" t="s">
         <v>81</v>
       </c>
-      <c r="E96" t="s">
+      <c r="E96" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="F96" t="s">
+      <c r="F96" s="25" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="97" spans="1:6">
-      <c r="A97" t="s">
+    <row r="97" s="25" customFormat="1" spans="1:6">
+      <c r="A97" s="25" t="s">
         <v>138</v>
       </c>
-      <c r="B97" t="s">
+      <c r="B97" s="25" t="s">
         <v>139</v>
       </c>
-      <c r="C97" t="s">
+      <c r="C97" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="D97" t="s">
+      <c r="D97" s="25" t="s">
         <v>84</v>
       </c>
-      <c r="E97" t="s">
+      <c r="E97" s="25" t="s">
         <v>85</v>
       </c>
-      <c r="F97" t="s">
+      <c r="F97" s="25" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="98" spans="1:6">
-      <c r="A98" t="s">
+    <row r="98" s="25" customFormat="1" spans="1:6">
+      <c r="A98" s="25" t="s">
         <v>140</v>
       </c>
-      <c r="B98" t="s">
+      <c r="B98" s="25" t="s">
         <v>141</v>
       </c>
-      <c r="C98" t="s">
+      <c r="C98" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="D98" t="s">
+      <c r="D98" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="E98" t="s">
+      <c r="E98" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="F98" t="s">
+      <c r="F98" s="25" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="99" spans="1:6">
-      <c r="A99" t="s">
+    <row r="99" s="25" customFormat="1" spans="1:6">
+      <c r="A99" s="25" t="s">
         <v>140</v>
       </c>
-      <c r="B99" t="s">
+      <c r="B99" s="25" t="s">
         <v>141</v>
       </c>
-      <c r="C99" t="s">
+      <c r="C99" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="D99" t="s">
+      <c r="D99" s="25" t="s">
         <v>81</v>
       </c>
-      <c r="E99" t="s">
+      <c r="E99" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="F99" t="s">
+      <c r="F99" s="25" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="100" spans="1:6">
-      <c r="A100" t="s">
+    <row r="100" s="25" customFormat="1" spans="1:6">
+      <c r="A100" s="25" t="s">
         <v>140</v>
       </c>
-      <c r="B100" t="s">
+      <c r="B100" s="25" t="s">
         <v>141</v>
       </c>
-      <c r="C100" t="s">
+      <c r="C100" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="D100" t="s">
+      <c r="D100" s="25" t="s">
         <v>84</v>
       </c>
-      <c r="E100" t="s">
+      <c r="E100" s="25" t="s">
         <v>85</v>
       </c>
-      <c r="F100" t="s">
+      <c r="F100" s="25" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="101" spans="1:6">
-      <c r="A101" t="s">
+    <row r="101" s="25" customFormat="1" spans="1:6">
+      <c r="A101" s="25" t="s">
         <v>142</v>
       </c>
-      <c r="B101" t="s">
+      <c r="B101" s="25" t="s">
         <v>143</v>
       </c>
-      <c r="C101" t="s">
+      <c r="C101" s="25" t="s">
         <v>144</v>
       </c>
-      <c r="D101" t="s">
+      <c r="D101" s="25" t="s">
         <v>145</v>
       </c>
-      <c r="E101" t="s">
+      <c r="E101" s="25" t="s">
         <v>146</v>
       </c>
-      <c r="F101" t="s">
+      <c r="F101" s="25" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="102" spans="1:6">
-      <c r="A102" t="s">
+    <row r="102" s="25" customFormat="1" spans="1:6">
+      <c r="A102" s="25" t="s">
         <v>142</v>
       </c>
-      <c r="B102" t="s">
+      <c r="B102" s="25" t="s">
         <v>143</v>
       </c>
-      <c r="C102" t="s">
+      <c r="C102" s="25" t="s">
         <v>147</v>
       </c>
-      <c r="D102" t="s">
+      <c r="D102" s="25" t="s">
         <v>148</v>
       </c>
-      <c r="E102" t="s">
+      <c r="E102" s="25" t="s">
         <v>149</v>
       </c>
-      <c r="F102" t="s">
+      <c r="F102" s="25" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="103" spans="1:6">
-      <c r="A103" t="s">
+    <row r="103" s="25" customFormat="1" spans="1:6">
+      <c r="A103" s="25" t="s">
         <v>142</v>
       </c>
-      <c r="B103" t="s">
+      <c r="B103" s="25" t="s">
         <v>143</v>
       </c>
-      <c r="C103" t="s">
+      <c r="C103" s="25" t="s">
         <v>150</v>
       </c>
-      <c r="D103" t="s">
+      <c r="D103" s="25" t="s">
         <v>151</v>
       </c>
-      <c r="E103" t="s">
+      <c r="E103" s="25" t="s">
         <v>152</v>
       </c>
-      <c r="F103" t="s">
+      <c r="F103" s="25" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="104" spans="1:6">
-      <c r="A104" t="s">
+    <row r="104" s="25" customFormat="1" spans="1:6">
+      <c r="A104" s="25" t="s">
         <v>153</v>
       </c>
-      <c r="B104" t="s">
+      <c r="B104" s="25" t="s">
         <v>154</v>
       </c>
-      <c r="C104" t="s">
+      <c r="C104" s="25" t="s">
         <v>144</v>
       </c>
-      <c r="D104" t="s">
+      <c r="D104" s="25" t="s">
         <v>145</v>
       </c>
-      <c r="E104" t="s">
+      <c r="E104" s="25" t="s">
         <v>146</v>
       </c>
-      <c r="F104" t="s">
+      <c r="F104" s="25" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="105" spans="1:6">
-      <c r="A105" t="s">
+    <row r="105" s="25" customFormat="1" spans="1:6">
+      <c r="A105" s="25" t="s">
         <v>153</v>
       </c>
-      <c r="B105" t="s">
+      <c r="B105" s="25" t="s">
         <v>154</v>
       </c>
-      <c r="C105" t="s">
+      <c r="C105" s="25" t="s">
         <v>147</v>
       </c>
-      <c r="D105" t="s">
+      <c r="D105" s="25" t="s">
         <v>148</v>
       </c>
-      <c r="E105" t="s">
+      <c r="E105" s="25" t="s">
         <v>149</v>
       </c>
-      <c r="F105" t="s">
+      <c r="F105" s="25" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="106" spans="1:6">
-      <c r="A106" t="s">
+    <row r="106" s="25" customFormat="1" spans="1:6">
+      <c r="A106" s="25" t="s">
         <v>153</v>
       </c>
-      <c r="B106" t="s">
+      <c r="B106" s="25" t="s">
         <v>154</v>
       </c>
-      <c r="C106" t="s">
+      <c r="C106" s="25" t="s">
         <v>150</v>
       </c>
-      <c r="D106" t="s">
+      <c r="D106" s="25" t="s">
         <v>151</v>
       </c>
-      <c r="E106" t="s">
+      <c r="E106" s="25" t="s">
         <v>152</v>
       </c>
-      <c r="F106" t="s">
+      <c r="F106" s="25" t="s">
         <v>15</v>
       </c>
     </row>
@@ -5156,127 +5156,130 @@
         <v>15</v>
       </c>
     </row>
-    <row r="134" s="25" customFormat="1" spans="1:6">
-      <c r="A134" s="25" t="s">
+    <row r="134" s="1" customFormat="1" spans="1:6">
+      <c r="A134" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B134" s="25" t="s">
+      <c r="B134" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="C134" s="25" t="s">
+      <c r="C134" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="D134" s="25" t="s">
+      <c r="D134" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="E134" s="25" t="s">
+      <c r="E134" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="F134" s="25" t="s">
+      <c r="F134" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="135" s="25" customFormat="1" spans="1:6">
-      <c r="A135" s="25" t="s">
+    <row r="135" s="1" customFormat="1" spans="1:6">
+      <c r="A135" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B135" s="25" t="s">
+      <c r="B135" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="C135" s="25" t="s">
+      <c r="C135" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="D135" s="25" t="s">
+      <c r="D135" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="E135" s="25" t="s">
+      <c r="E135" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="F135" s="25" t="s">
+      <c r="F135" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="136" s="25" customFormat="1" spans="1:6">
-      <c r="A136" s="25" t="s">
+    <row r="136" s="1" customFormat="1" spans="1:6">
+      <c r="A136" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B136" s="25" t="s">
+      <c r="B136" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="C136" s="25" t="s">
+      <c r="C136" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="D136" s="25" t="s">
+      <c r="D136" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="E136" s="25" t="s">
+      <c r="E136" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="F136" s="25" t="s">
+      <c r="F136" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="137" s="25" customFormat="1" spans="1:6">
-      <c r="A137" s="25" t="s">
+    <row r="137" s="1" customFormat="1" spans="1:6">
+      <c r="A137" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B137" s="25" t="s">
+      <c r="B137" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="C137" s="25" t="s">
+      <c r="C137" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="D137" s="25" t="s">
+      <c r="D137" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="E137" s="25" t="s">
+      <c r="E137" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="F137" s="25" t="s">
+      <c r="F137" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="138" s="25" customFormat="1" spans="1:6">
-      <c r="A138" s="25" t="s">
+    <row r="138" s="1" customFormat="1" spans="1:6">
+      <c r="A138" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B138" s="25" t="s">
+      <c r="B138" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="C138" s="25" t="s">
+      <c r="C138" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="D138" s="25" t="s">
+      <c r="D138" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="E138" s="25" t="s">
+      <c r="E138" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="F138" s="25" t="s">
+      <c r="F138" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="139" s="25" customFormat="1" spans="1:6">
-      <c r="A139" s="25" t="s">
+    <row r="139" s="1" customFormat="1" spans="1:6">
+      <c r="A139" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B139" s="25" t="s">
+      <c r="B139" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="C139" s="25" t="s">
+      <c r="C139" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="D139" s="25" t="s">
+      <c r="D139" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="E139" s="25" t="s">
+      <c r="E139" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="F139" s="25" t="s">
+      <c r="F139" s="1" t="s">
         <v>15</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="E1:E139">
+    <extLst/>
+  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -5285,10 +5288,398 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A1:B46"/>
+  <sheetViews>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="60.2222222222222" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>162</v>
+      </c>
+      <c r="B3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>159</v>
+      </c>
+      <c r="B4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>216</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>213</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>210</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>122</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>119</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>116</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>100</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>97</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>94</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>42</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>39</v>
+      </c>
+      <c r="B22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>63</v>
+      </c>
+      <c r="B23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>60</v>
+      </c>
+      <c r="B24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>57</v>
+      </c>
+      <c r="B25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>85</v>
+      </c>
+      <c r="B26">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>82</v>
+      </c>
+      <c r="B27">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>79</v>
+      </c>
+      <c r="B28">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>131</v>
+      </c>
+      <c r="B29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>128</v>
+      </c>
+      <c r="B30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>125</v>
+      </c>
+      <c r="B31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
+        <v>54</v>
+      </c>
+      <c r="B32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>51</v>
+      </c>
+      <c r="B33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>48</v>
+      </c>
+      <c r="B34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
+        <v>152</v>
+      </c>
+      <c r="B35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" t="s">
+        <v>149</v>
+      </c>
+      <c r="B36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" t="s">
+        <v>146</v>
+      </c>
+      <c r="B37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" t="s">
+        <v>109</v>
+      </c>
+      <c r="B38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" t="s">
+        <v>106</v>
+      </c>
+      <c r="B39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" t="s">
+        <v>103</v>
+      </c>
+      <c r="B40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" t="s">
+        <v>36</v>
+      </c>
+      <c r="B41">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" t="s">
+        <v>33</v>
+      </c>
+      <c r="B42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" t="s">
+        <v>30</v>
+      </c>
+      <c r="B43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" t="s">
+        <v>76</v>
+      </c>
+      <c r="B44">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" t="s">
+        <v>73</v>
+      </c>
+      <c r="B45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" t="s">
+        <v>70</v>
+      </c>
+      <c r="B46">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:R86"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.87962962962963" defaultRowHeight="14.4"/>
@@ -5313,107 +5704,107 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:18">
       <c r="A1" s="4" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="P1" s="4" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q1" s="4" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="R1" s="4" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="2" s="2" customFormat="1" spans="1:18">
       <c r="A2" s="5" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C2" s="7">
         <v>1</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>7</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="H2" s="8" t="s">
         <v>6</v>
       </c>
       <c r="I2" s="8"/>
       <c r="J2" s="8" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="K2" s="8" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="L2" s="8" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="M2" s="8" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="N2" s="8"/>
       <c r="O2" s="8" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="P2" s="8" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q2" s="8" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="R2" s="8"/>
     </row>
@@ -5424,42 +5815,42 @@
         <v>2</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E3" s="8" t="s">
         <v>65</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="H3" s="8" t="s">
         <v>64</v>
       </c>
       <c r="I3" s="8"/>
       <c r="J3" s="8" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="K3" s="8" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="L3" s="8" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="M3" s="8" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="N3" s="8"/>
       <c r="O3" s="8" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="P3" s="8" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q3" s="8" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="R3" s="8"/>
     </row>
@@ -5470,45 +5861,45 @@
         <v>3</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E4" s="12" t="s">
         <v>67</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="H4" s="12" t="s">
         <v>66</v>
       </c>
       <c r="I4" s="12"/>
       <c r="J4" s="12" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="K4" s="12" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="L4" s="12" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="M4" s="12" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="N4" s="12"/>
       <c r="O4" s="12" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="P4" s="12" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q4" s="12" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="R4" s="12" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="5" s="2" customFormat="1" spans="1:18">
@@ -5518,45 +5909,45 @@
         <v>4</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E5" s="12" t="s">
         <v>87</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="H5" s="12" t="s">
         <v>86</v>
       </c>
       <c r="I5" s="12"/>
       <c r="J5" s="12" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="K5" s="12" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="L5" s="12" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="M5" s="12" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="N5" s="12"/>
       <c r="O5" s="12" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="P5" s="12" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q5" s="12" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="R5" s="12" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="6" s="2" customFormat="1" spans="1:18">
@@ -5566,45 +5957,45 @@
         <v>5</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E6" s="12" t="s">
         <v>89</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="H6" s="12" t="s">
         <v>88</v>
       </c>
       <c r="I6" s="12"/>
       <c r="J6" s="12" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="K6" s="12" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="L6" s="12" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="M6" s="12" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="N6" s="12"/>
       <c r="O6" s="12" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="P6" s="12" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q6" s="12" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="R6" s="12" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="7" s="2" customFormat="1" spans="1:18">
@@ -5614,42 +6005,42 @@
         <v>6</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E7" s="8" t="s">
         <v>91</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="H7" s="8" t="s">
         <v>90</v>
       </c>
       <c r="I7" s="8"/>
       <c r="J7" s="8" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="K7" s="8" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="L7" s="8" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="M7" s="8" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="N7" s="8"/>
       <c r="O7" s="8" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="P7" s="8" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q7" s="8" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="R7" s="8"/>
     </row>
@@ -5660,42 +6051,42 @@
         <v>7</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E8" s="8" t="s">
         <v>111</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H8" s="8" t="s">
         <v>110</v>
       </c>
       <c r="I8" s="8"/>
       <c r="J8" s="8" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="K8" s="8" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="L8" s="8" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="M8" s="8" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="N8" s="8"/>
       <c r="O8" s="8" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="P8" s="8" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q8" s="8" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="R8" s="8"/>
     </row>
@@ -5706,45 +6097,45 @@
         <v>8</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="I9" s="8"/>
       <c r="J9" s="8" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="K9" s="8" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="L9" s="8" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="M9" s="8" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="N9" s="8"/>
       <c r="O9" s="8" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="P9" s="8" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q9" s="8" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="R9" s="8" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="10" s="2" customFormat="1" spans="1:18">
@@ -5754,42 +6145,42 @@
         <v>9</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="I10" s="8"/>
       <c r="J10" s="8" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="K10" s="8" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="L10" s="8" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="M10" s="8" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="N10" s="8"/>
       <c r="O10" s="8" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="P10" s="8" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q10" s="8" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="R10" s="8"/>
     </row>
@@ -5800,42 +6191,42 @@
         <v>10</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="I11" s="8"/>
       <c r="J11" s="8" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="K11" s="8" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="L11" s="8" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="M11" s="8" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="N11" s="8"/>
       <c r="O11" s="8" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="P11" s="8" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q11" s="8" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="R11" s="8"/>
     </row>
@@ -5846,42 +6237,42 @@
         <v>11</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I12" s="8"/>
       <c r="J12" s="8" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="K12" s="8" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="L12" s="8" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="M12" s="8" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="N12" s="8"/>
       <c r="O12" s="8" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="P12" s="8" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q12" s="8" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="R12" s="8"/>
     </row>
@@ -5892,42 +6283,42 @@
         <v>12</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="I13" s="8"/>
       <c r="J13" s="8" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="K13" s="8" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="L13" s="8" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="M13" s="8" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="N13" s="8"/>
       <c r="O13" s="8" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="P13" s="8" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q13" s="8" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="R13" s="8"/>
     </row>
@@ -5938,42 +6329,42 @@
         <v>13</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="I14" s="8"/>
       <c r="J14" s="8" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="K14" s="8" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="L14" s="8" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="M14" s="8" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="N14" s="8"/>
       <c r="O14" s="8" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="P14" s="8" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q14" s="8" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="R14" s="8"/>
     </row>
@@ -5984,42 +6375,42 @@
         <v>14</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="I15" s="8"/>
       <c r="J15" s="8" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="K15" s="8" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="L15" s="8" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="M15" s="8" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="N15" s="8"/>
       <c r="O15" s="8" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="P15" s="8" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q15" s="8" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="R15" s="8"/>
     </row>
@@ -6030,42 +6421,42 @@
         <v>15</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="I16" s="8"/>
       <c r="J16" s="8" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="K16" s="8" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="L16" s="8" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="M16" s="8" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="N16" s="8"/>
       <c r="O16" s="8" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="P16" s="8" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q16" s="8" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="R16" s="8"/>
     </row>
@@ -6076,42 +6467,42 @@
         <v>16</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="I17" s="8"/>
       <c r="J17" s="8" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="K17" s="8" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="L17" s="8" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="M17" s="8" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="N17" s="8"/>
       <c r="O17" s="8" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="P17" s="8" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q17" s="8" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="R17" s="8"/>
     </row>
@@ -6122,42 +6513,42 @@
         <v>17</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H18" s="8" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="I18" s="8"/>
       <c r="J18" s="8" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="K18" s="8" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="L18" s="8" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="M18" s="8" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="N18" s="8"/>
       <c r="O18" s="8" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="P18" s="8" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q18" s="8" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="R18" s="8"/>
     </row>
@@ -6168,45 +6559,45 @@
         <v>18</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E19" s="12" t="s">
         <v>113</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="G19" s="12" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H19" s="12" t="s">
         <v>112</v>
       </c>
       <c r="I19" s="12"/>
       <c r="J19" s="12" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="K19" s="12" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="L19" s="12" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="M19" s="12" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="N19" s="12"/>
       <c r="O19" s="12" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="P19" s="12" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q19" s="12" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="R19" s="8" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="20" s="2" customFormat="1" spans="1:18">
@@ -6216,45 +6607,45 @@
         <v>19</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="G20" s="8" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="I20" s="8"/>
       <c r="J20" s="8" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="K20" s="8" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="L20" s="8" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="M20" s="8" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="N20" s="8"/>
       <c r="O20" s="8" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="P20" s="8" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q20" s="8" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="R20" s="8" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="21" s="2" customFormat="1" ht="13.9" customHeight="1" spans="1:18">
@@ -6264,42 +6655,42 @@
         <v>20</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="I21" s="8"/>
       <c r="J21" s="8" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="K21" s="8" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="L21" s="8" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="M21" s="8" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="N21" s="8"/>
       <c r="O21" s="8" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="P21" s="8" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q21" s="8" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="R21" s="8"/>
     </row>
@@ -6310,42 +6701,42 @@
         <v>21</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="G22" s="8" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="I22" s="8"/>
       <c r="J22" s="8" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="K22" s="8" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="L22" s="8" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="M22" s="8" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="N22" s="8"/>
       <c r="O22" s="8" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="P22" s="8" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q22" s="8" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="R22" s="8"/>
     </row>
@@ -6356,47 +6747,47 @@
         <v>22</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="G23" s="8" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="I23" s="6" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="J23" s="8" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="K23" s="8" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="L23" s="8" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="M23" s="8" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="N23" s="8"/>
       <c r="O23" s="8" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="P23" s="8" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q23" s="8" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="R23" s="8" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="24" s="2" customFormat="1" ht="13.9" customHeight="1" spans="1:18">
@@ -6406,42 +6797,42 @@
         <v>23</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="G24" s="8" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="I24" s="10"/>
       <c r="J24" s="8" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="K24" s="8" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="L24" s="8" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="M24" s="8" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="N24" s="8"/>
       <c r="O24" s="8" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="P24" s="8" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q24" s="8" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="R24" s="8"/>
     </row>
@@ -6452,42 +6843,42 @@
         <v>24</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="H25" s="8" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="I25" s="13"/>
       <c r="J25" s="8" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="K25" s="8" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="L25" s="8" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="M25" s="8" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="N25" s="8"/>
       <c r="O25" s="8" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="P25" s="8" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q25" s="8" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="R25" s="8"/>
     </row>
@@ -6498,19 +6889,19 @@
         <v>25</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="G26" s="8" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H26" s="8" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="I26" s="13"/>
       <c r="J26" s="8"/>
@@ -6530,19 +6921,19 @@
         <v>26</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="G27" s="8" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H27" s="8" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="I27" s="13"/>
       <c r="J27" s="8"/>
@@ -6562,138 +6953,138 @@
         <v>27</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="G28" s="8" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H28" s="8" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="I28" s="8"/>
       <c r="J28" s="8" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="K28" s="8" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="L28" s="8" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="M28" s="8" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="N28" s="8"/>
       <c r="O28" s="8" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="P28" s="8" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q28" s="8" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="R28" s="8"/>
     </row>
     <row r="29" s="1" customFormat="1" spans="1:18">
       <c r="A29" s="9"/>
       <c r="B29" s="14" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C29" s="7">
         <v>28</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="G29" s="8" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H29" s="8" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="I29" s="8"/>
       <c r="J29" s="8" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="K29" s="8" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="L29" s="8" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="M29" s="8" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="N29" s="8"/>
       <c r="O29" s="8" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="P29" s="8" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q29" s="8" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="R29" s="8"/>
     </row>
     <row r="30" s="2" customFormat="1" spans="1:18">
       <c r="A30" s="9"/>
       <c r="B30" s="6" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C30" s="7">
         <v>29</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="G30" s="8" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H30" s="8" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="I30" s="8"/>
       <c r="J30" s="8" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="K30" s="8" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="L30" s="8" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="M30" s="8" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="N30" s="8"/>
       <c r="O30" s="8" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="P30" s="8" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q30" s="8" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="R30" s="8"/>
     </row>
@@ -6704,42 +7095,42 @@
         <v>30</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="G31" s="8" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H31" s="8" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="I31" s="8"/>
       <c r="J31" s="8" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="K31" s="8" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="L31" s="8" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="M31" s="8" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="N31" s="8"/>
       <c r="O31" s="8" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="P31" s="8" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q31" s="8" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="R31" s="8"/>
     </row>
@@ -6750,42 +7141,42 @@
         <v>31</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="F32" s="8" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="G32" s="8" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H32" s="8" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="I32" s="8"/>
       <c r="J32" s="8" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="K32" s="8" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="L32" s="8" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="M32" s="8" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="N32" s="8"/>
       <c r="O32" s="8" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="P32" s="8" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q32" s="8" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="R32" s="8"/>
     </row>
@@ -6796,42 +7187,42 @@
         <v>32</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="F33" s="8" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="G33" s="8" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H33" s="8" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="I33" s="8"/>
       <c r="J33" s="8" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="K33" s="8" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="L33" s="8" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="M33" s="8" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="N33" s="8"/>
       <c r="O33" s="8" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="P33" s="8" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q33" s="8" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="R33" s="8"/>
     </row>
@@ -6842,42 +7233,42 @@
         <v>33</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E34" s="8" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="F34" s="8" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="G34" s="8" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H34" s="8" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="I34" s="8"/>
       <c r="J34" s="8" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="K34" s="8" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="L34" s="8" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="M34" s="8" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="N34" s="8"/>
       <c r="O34" s="8" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="P34" s="8" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q34" s="8" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="R34" s="8"/>
     </row>
@@ -6888,19 +7279,19 @@
         <v>34</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="F35" s="8" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="G35" s="8" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H35" s="8" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="I35" s="8"/>
       <c r="J35" s="8"/>
@@ -6920,19 +7311,19 @@
         <v>35</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="E36" s="8" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="F36" s="8" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="G36" s="8" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H36" s="8" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="I36" s="8"/>
       <c r="J36" s="8"/>
@@ -6947,51 +7338,51 @@
     </row>
     <row r="37" s="2" customFormat="1" spans="1:18">
       <c r="A37" s="16" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B37" s="17" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C37" s="7">
         <v>36</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E37" s="8" t="s">
         <v>133</v>
       </c>
       <c r="F37" s="8" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="G37" s="8" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="H37" s="8" t="s">
         <v>132</v>
       </c>
       <c r="I37" s="8"/>
       <c r="J37" s="8" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="K37" s="8" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="L37" s="8" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="M37" s="8" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="N37" s="8"/>
       <c r="O37" s="8" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="P37" s="8" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q37" s="8" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="R37" s="8"/>
     </row>
@@ -7002,42 +7393,42 @@
         <v>37</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E38" s="8" t="s">
         <v>135</v>
       </c>
       <c r="F38" s="8" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="G38" s="8" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="H38" s="8" t="s">
         <v>134</v>
       </c>
       <c r="I38" s="8"/>
       <c r="J38" s="8" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="K38" s="8" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="L38" s="8" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="M38" s="8" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="N38" s="8"/>
       <c r="O38" s="8" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="P38" s="8" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q38" s="8" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="R38" s="8"/>
     </row>
@@ -7048,42 +7439,42 @@
         <v>38</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E39" s="8" t="s">
         <v>137</v>
       </c>
       <c r="F39" s="8" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="G39" s="8" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H39" s="8" t="s">
         <v>136</v>
       </c>
       <c r="I39" s="8"/>
       <c r="J39" s="8" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="K39" s="8" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="L39" s="8" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="M39" s="8" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="N39" s="8"/>
       <c r="O39" s="8" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="P39" s="8" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q39" s="8" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="R39" s="8"/>
     </row>
@@ -7094,42 +7485,42 @@
         <v>39</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E40" s="8" t="s">
         <v>139</v>
       </c>
       <c r="F40" s="8" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="G40" s="8" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H40" s="8" t="s">
         <v>138</v>
       </c>
       <c r="I40" s="8"/>
       <c r="J40" s="8" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="K40" s="8" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="L40" s="8" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="M40" s="8" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="N40" s="8"/>
       <c r="O40" s="8" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="P40" s="8" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q40" s="8" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="R40" s="8"/>
     </row>
@@ -7140,42 +7531,42 @@
         <v>40</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E41" s="8" t="s">
         <v>141</v>
       </c>
       <c r="F41" s="8" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="G41" s="8" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H41" s="8" t="s">
         <v>140</v>
       </c>
       <c r="I41" s="8"/>
       <c r="J41" s="8" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="K41" s="8" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="L41" s="8" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="M41" s="8" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="N41" s="8"/>
       <c r="O41" s="8" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="P41" s="8" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q41" s="8" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="R41" s="8"/>
     </row>
@@ -7186,42 +7577,42 @@
         <v>41</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E42" s="8" t="s">
         <v>143</v>
       </c>
       <c r="F42" s="8" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="G42" s="8" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="H42" s="8" t="s">
         <v>142</v>
       </c>
       <c r="I42" s="8"/>
       <c r="J42" s="8" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="K42" s="8" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="L42" s="8" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="M42" s="8" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="N42" s="8"/>
       <c r="O42" s="8" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="P42" s="8" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q42" s="8" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="R42" s="8"/>
     </row>
@@ -7232,42 +7623,42 @@
         <v>42</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E43" s="8" t="s">
         <v>154</v>
       </c>
       <c r="F43" s="8" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="G43" s="8" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="H43" s="8" t="s">
         <v>153</v>
       </c>
       <c r="I43" s="8"/>
       <c r="J43" s="8" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="K43" s="8" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="L43" s="8" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="M43" s="8" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="N43" s="8"/>
       <c r="O43" s="8" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="P43" s="8" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q43" s="8" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="R43" s="8"/>
     </row>
@@ -7278,45 +7669,45 @@
         <v>43</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="E44" s="8" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="F44" s="8" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="G44" s="8" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="H44" s="8" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="I44" s="8"/>
       <c r="J44" s="8" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="K44" s="8" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="L44" s="8" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="M44" s="8" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="N44" s="8"/>
       <c r="O44" s="8" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="P44" s="8" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q44" s="8" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="R44" s="8" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="45" s="2" customFormat="1" ht="13.9" customHeight="1" spans="1:18">
@@ -7326,42 +7717,42 @@
         <v>44</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="E45" s="8" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="F45" s="8" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="G45" s="8" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="H45" s="8" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="I45" s="8"/>
       <c r="J45" s="8" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="K45" s="8" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="L45" s="8" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="M45" s="8" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="N45" s="8"/>
       <c r="O45" s="8" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="P45" s="8" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q45" s="8" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="R45" s="8"/>
     </row>
@@ -7372,42 +7763,42 @@
         <v>45</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="E46" s="8" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="F46" s="8" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="G46" s="8" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="H46" s="8" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="I46" s="8"/>
       <c r="J46" s="8" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="K46" s="8" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="L46" s="8" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="M46" s="8" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="N46" s="8"/>
       <c r="O46" s="8" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="P46" s="8" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q46" s="8" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="R46" s="8"/>
     </row>
@@ -7418,47 +7809,47 @@
         <v>46</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="E47" s="8" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="F47" s="8" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="G47" s="8" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="H47" s="8" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="I47" s="6" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="J47" s="8" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="K47" s="8" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="L47" s="8" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="M47" s="8" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="N47" s="8"/>
       <c r="O47" s="8" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="P47" s="8" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q47" s="8" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="R47" s="8" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="48" s="2" customFormat="1" ht="13.9" customHeight="1" spans="1:18">
@@ -7468,42 +7859,42 @@
         <v>47</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="E48" s="8" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="F48" s="8" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="G48" s="8" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="H48" s="8" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="I48" s="10"/>
       <c r="J48" s="8" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="K48" s="8" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="L48" s="8" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="M48" s="8" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="N48" s="8"/>
       <c r="O48" s="8" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="P48" s="8" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q48" s="8" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="R48" s="8"/>
     </row>
@@ -7514,42 +7905,42 @@
         <v>48</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="E49" s="8" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="F49" s="8" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="G49" s="8" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="H49" s="8" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="I49" s="13"/>
       <c r="J49" s="8" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="K49" s="8" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="L49" s="8" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="M49" s="8" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="N49" s="8"/>
       <c r="O49" s="8" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="P49" s="8" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q49" s="8" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="R49" s="8"/>
     </row>
@@ -7560,138 +7951,138 @@
         <v>49</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="E50" s="8" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="F50" s="8" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="G50" s="8" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H50" s="8" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="I50" s="8"/>
       <c r="J50" s="8" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="K50" s="8" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="L50" s="8" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="M50" s="8" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="N50" s="8"/>
       <c r="O50" s="8" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="P50" s="8" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q50" s="8" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="R50" s="8"/>
     </row>
     <row r="51" s="1" customFormat="1" spans="1:18">
       <c r="A51" s="18"/>
       <c r="B51" s="14" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C51" s="7">
         <v>50</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="E51" s="8" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="F51" s="8" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="G51" s="8" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H51" s="8" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="I51" s="8"/>
       <c r="J51" s="8" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="K51" s="8" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="L51" s="8" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="M51" s="8" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="N51" s="8"/>
       <c r="O51" s="8" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="P51" s="8" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q51" s="8" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="R51" s="8"/>
     </row>
     <row r="52" s="2" customFormat="1" spans="1:18">
       <c r="A52" s="18"/>
       <c r="B52" s="17" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C52" s="7">
         <v>51</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E52" s="8" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="F52" s="8" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="G52" s="8" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="H52" s="8" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="I52" s="8"/>
       <c r="J52" s="8" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="K52" s="8" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="L52" s="8" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="M52" s="8" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="N52" s="8"/>
       <c r="O52" s="8" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="P52" s="8" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q52" s="8" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="R52" s="8"/>
     </row>
@@ -7702,42 +8093,42 @@
         <v>52</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E53" s="8" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="F53" s="8" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="G53" s="8" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="H53" s="8" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="I53" s="8"/>
       <c r="J53" s="8" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="K53" s="8" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="L53" s="8" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="M53" s="8" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="N53" s="8"/>
       <c r="O53" s="8" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="P53" s="8" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q53" s="8" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="R53" s="8"/>
     </row>
@@ -7748,42 +8139,42 @@
         <v>53</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E54" s="8" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="F54" s="8" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="G54" s="8" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H54" s="8" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="I54" s="8"/>
       <c r="J54" s="8" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="K54" s="8" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="L54" s="8" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="M54" s="8" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="N54" s="8"/>
       <c r="O54" s="8" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="P54" s="8" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q54" s="8" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="R54" s="8"/>
     </row>
@@ -7794,42 +8185,42 @@
         <v>54</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E55" s="8" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="F55" s="8" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="G55" s="8" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H55" s="8" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="I55" s="8"/>
       <c r="J55" s="8" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="K55" s="8" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="L55" s="8" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="M55" s="8" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="N55" s="8"/>
       <c r="O55" s="8" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="P55" s="8" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q55" s="8" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="R55" s="8"/>
     </row>
@@ -7840,42 +8231,42 @@
         <v>55</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E56" s="8" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="F56" s="8" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="G56" s="8" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H56" s="8" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="I56" s="8"/>
       <c r="J56" s="8" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="K56" s="8" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="L56" s="8" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="M56" s="8" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="N56" s="8"/>
       <c r="O56" s="8" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="P56" s="8" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q56" s="8" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="R56" s="8"/>
     </row>
@@ -7886,42 +8277,42 @@
         <v>56</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E57" s="8" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="F57" s="8" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="G57" s="8" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="H57" s="8" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="I57" s="8"/>
       <c r="J57" s="8" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="K57" s="8" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="L57" s="8" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="M57" s="8" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="N57" s="8"/>
       <c r="O57" s="8" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="P57" s="8" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q57" s="8" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="R57" s="8"/>
     </row>
@@ -7932,42 +8323,42 @@
         <v>57</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E58" s="8" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="F58" s="8" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="G58" s="8" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="H58" s="8" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="I58" s="8"/>
       <c r="J58" s="8" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="K58" s="8" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="L58" s="8" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="M58" s="8" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="N58" s="8"/>
       <c r="O58" s="8" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="P58" s="8" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q58" s="8" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="R58" s="8"/>
     </row>
@@ -7978,45 +8369,45 @@
         <v>58</v>
       </c>
       <c r="D59" s="8" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="E59" s="8" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="F59" s="8" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="G59" s="8" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="H59" s="8" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="I59" s="8"/>
       <c r="J59" s="8" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="K59" s="8" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="L59" s="8" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="M59" s="8" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="N59" s="8"/>
       <c r="O59" s="8" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="P59" s="8" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q59" s="8" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="R59" s="8" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="60" s="2" customFormat="1" ht="13.9" customHeight="1" spans="1:18">
@@ -8026,42 +8417,42 @@
         <v>59</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="E60" s="8" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="F60" s="8" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="G60" s="8" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="H60" s="8" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="I60" s="8"/>
       <c r="J60" s="8" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="K60" s="8" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="L60" s="8" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="M60" s="8" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="N60" s="8"/>
       <c r="O60" s="8" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="P60" s="8" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q60" s="8" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="R60" s="8"/>
     </row>
@@ -8072,42 +8463,42 @@
         <v>60</v>
       </c>
       <c r="D61" s="8" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="E61" s="8" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="F61" s="8" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="G61" s="8" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="H61" s="8" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="I61" s="8"/>
       <c r="J61" s="8" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="K61" s="8" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="L61" s="8" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="M61" s="8" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="N61" s="8"/>
       <c r="O61" s="8" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="P61" s="8" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q61" s="8" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="R61" s="8"/>
     </row>
@@ -8118,47 +8509,47 @@
         <v>61</v>
       </c>
       <c r="D62" s="8" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="E62" s="8" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="F62" s="8" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="G62" s="8" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="H62" s="8" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="I62" s="6" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="J62" s="8" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="K62" s="8" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="L62" s="8" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="M62" s="8" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="N62" s="8"/>
       <c r="O62" s="8" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="P62" s="8" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q62" s="8" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="R62" s="8" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="63" s="2" customFormat="1" ht="13.9" customHeight="1" spans="1:18">
@@ -8168,42 +8559,42 @@
         <v>62</v>
       </c>
       <c r="D63" s="8" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="E63" s="8" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="F63" s="8" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="G63" s="8" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="H63" s="8" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="I63" s="10"/>
       <c r="J63" s="8" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="K63" s="8" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="L63" s="8" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="M63" s="8" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="N63" s="8"/>
       <c r="O63" s="8" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="P63" s="8" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q63" s="8" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="R63" s="8"/>
     </row>
@@ -8214,42 +8605,42 @@
         <v>63</v>
       </c>
       <c r="D64" s="8" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="E64" s="8" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="F64" s="8" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="G64" s="8" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="H64" s="8" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="I64" s="13"/>
       <c r="J64" s="8" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="K64" s="8" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="L64" s="8" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="M64" s="8" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="N64" s="8"/>
       <c r="O64" s="8" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="P64" s="8" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q64" s="8" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="R64" s="8"/>
     </row>
@@ -8260,140 +8651,140 @@
         <v>64</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="E65" s="8" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="F65" s="8" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="G65" s="8" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H65" s="8" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="I65" s="8"/>
       <c r="J65" s="8" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="K65" s="8" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="L65" s="8" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="M65" s="8" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="N65" s="8"/>
       <c r="O65" s="8" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="P65" s="8" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q65" s="8" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="R65" s="8"/>
     </row>
     <row r="66" s="1" customFormat="1" spans="1:18">
       <c r="A66" s="21"/>
       <c r="B66" s="14" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C66" s="7">
         <v>65</v>
       </c>
       <c r="D66" s="8" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="E66" s="8" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="F66" s="8" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="G66" s="8" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H66" s="8" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="I66" s="8"/>
       <c r="J66" s="8" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="K66" s="8" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="L66" s="8" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="M66" s="8" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="N66" s="8"/>
       <c r="O66" s="8" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="P66" s="8" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q66" s="8" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="R66" s="8"/>
     </row>
     <row r="67" s="2" customFormat="1" spans="1:18">
       <c r="A67" s="22" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C67" s="7">
         <v>66</v>
       </c>
       <c r="D67" s="8" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="E67" s="8" t="s">
         <v>156</v>
       </c>
       <c r="F67" s="8" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="G67" s="8" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="H67" s="8" t="s">
         <v>155</v>
       </c>
       <c r="I67" s="8"/>
       <c r="J67" s="8" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="K67" s="8" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="L67" s="8" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="M67" s="8" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="N67" s="8"/>
       <c r="O67" s="8" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="P67" s="8" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q67" s="8" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="R67" s="8"/>
     </row>
@@ -8404,42 +8795,42 @@
         <v>67</v>
       </c>
       <c r="D68" s="8" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="E68" s="8" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="F68" s="8" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="G68" s="8" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="H68" s="8" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="I68" s="8"/>
       <c r="J68" s="8" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="K68" s="8" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="L68" s="8" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="M68" s="8" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="N68" s="8"/>
       <c r="O68" s="8" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="P68" s="8" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q68" s="8" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="R68" s="8"/>
     </row>
@@ -8450,42 +8841,42 @@
         <v>68</v>
       </c>
       <c r="D69" s="8" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="E69" s="8" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="F69" s="8" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="G69" s="8" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="H69" s="8" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="I69" s="8"/>
       <c r="J69" s="8" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="K69" s="8" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="L69" s="8" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="M69" s="8" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="N69" s="8"/>
       <c r="O69" s="8" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="P69" s="8" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q69" s="8" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="R69" s="8"/>
     </row>
@@ -8496,42 +8887,42 @@
         <v>69</v>
       </c>
       <c r="D70" s="8" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="E70" s="8" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="F70" s="8" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="G70" s="8" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="H70" s="8" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="I70" s="8"/>
       <c r="J70" s="8" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="K70" s="8" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="L70" s="8" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="M70" s="8" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="N70" s="8"/>
       <c r="O70" s="8" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="P70" s="8" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q70" s="8" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="R70" s="8"/>
     </row>
@@ -8542,42 +8933,42 @@
         <v>70</v>
       </c>
       <c r="D71" s="8" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="E71" s="8" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="F71" s="8" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="G71" s="8" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="H71" s="8" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="I71" s="8"/>
       <c r="J71" s="8" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="K71" s="8" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="L71" s="8" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="M71" s="8" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="N71" s="8"/>
       <c r="O71" s="8" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="P71" s="8" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q71" s="8" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="R71" s="8"/>
     </row>
@@ -8588,42 +8979,42 @@
         <v>71</v>
       </c>
       <c r="D72" s="8" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="E72" s="8" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="F72" s="8" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="G72" s="8" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="H72" s="8" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="I72" s="8"/>
       <c r="J72" s="8" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="K72" s="8" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="L72" s="8" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="M72" s="8" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="N72" s="8"/>
       <c r="O72" s="8" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="P72" s="8" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q72" s="8" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="R72" s="8"/>
     </row>
@@ -8634,42 +9025,42 @@
         <v>72</v>
       </c>
       <c r="D73" s="8" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="E73" s="8" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="F73" s="8" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="G73" s="8" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="H73" s="8" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="I73" s="8"/>
       <c r="J73" s="8" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="K73" s="8" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="L73" s="8" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="M73" s="8" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="N73" s="8"/>
       <c r="O73" s="8" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="P73" s="8" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q73" s="8" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="R73" s="8"/>
     </row>
@@ -8680,42 +9071,42 @@
         <v>73</v>
       </c>
       <c r="D74" s="8" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="E74" s="8" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="F74" s="8" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="G74" s="8" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="H74" s="8" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="I74" s="8"/>
       <c r="J74" s="8" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="K74" s="8" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="L74" s="8" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="M74" s="8" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="N74" s="8"/>
       <c r="O74" s="8" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="P74" s="8" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q74" s="8" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="R74" s="8"/>
     </row>
@@ -8726,42 +9117,42 @@
         <v>74</v>
       </c>
       <c r="D75" s="8" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="E75" s="8" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="F75" s="8" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="G75" s="8" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="H75" s="8" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="I75" s="8"/>
       <c r="J75" s="8" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="K75" s="8" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="L75" s="8" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="M75" s="8" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="N75" s="8"/>
       <c r="O75" s="8" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="P75" s="8" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q75" s="8" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="R75" s="8"/>
     </row>
@@ -8772,42 +9163,42 @@
         <v>75</v>
       </c>
       <c r="D76" s="8" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="E76" s="8" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="F76" s="8" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="G76" s="8" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="H76" s="8" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="I76" s="8"/>
       <c r="J76" s="8" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="K76" s="8" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="L76" s="8" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="M76" s="8" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="N76" s="8"/>
       <c r="O76" s="8" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="P76" s="8" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q76" s="8" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="R76" s="8"/>
     </row>
@@ -8818,42 +9209,42 @@
         <v>76</v>
       </c>
       <c r="D77" s="8" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="E77" s="8" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="F77" s="8" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="G77" s="8" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="H77" s="8" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="I77" s="8"/>
       <c r="J77" s="8" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="K77" s="8" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="L77" s="8" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="M77" s="8" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="N77" s="8"/>
       <c r="O77" s="8" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="P77" s="8" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q77" s="8" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="R77" s="8"/>
     </row>
@@ -8864,42 +9255,42 @@
         <v>77</v>
       </c>
       <c r="D78" s="8" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="E78" s="8" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="F78" s="8" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="G78" s="8" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="H78" s="8" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="I78" s="8"/>
       <c r="J78" s="8" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="K78" s="8" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="L78" s="8" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="M78" s="8" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="N78" s="8"/>
       <c r="O78" s="8" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="P78" s="8" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q78" s="8" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="R78" s="8"/>
     </row>
@@ -8910,90 +9301,90 @@
         <v>78</v>
       </c>
       <c r="D79" s="8" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="E79" s="8" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="F79" s="8" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="G79" s="8" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="H79" s="8" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="I79" s="8"/>
       <c r="J79" s="8" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="K79" s="8" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="L79" s="8" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="M79" s="8" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="N79" s="8"/>
       <c r="O79" s="8" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="P79" s="8" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q79" s="8" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="R79" s="8"/>
     </row>
     <row r="80" s="2" customFormat="1" spans="1:18">
       <c r="A80" s="23"/>
       <c r="B80" s="6" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C80" s="7">
         <v>79</v>
       </c>
       <c r="D80" s="8" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="E80" s="8" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="F80" s="8" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="G80" s="8" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="H80" s="8" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="I80" s="8"/>
       <c r="J80" s="8" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="K80" s="8" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="L80" s="8" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="M80" s="8" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="N80" s="8"/>
       <c r="O80" s="8" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="P80" s="8" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q80" s="8" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="R80" s="8"/>
     </row>
@@ -9004,42 +9395,42 @@
         <v>80</v>
       </c>
       <c r="D81" s="8" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="E81" s="8" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="F81" s="8" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="G81" s="8" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="H81" s="8" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="I81" s="8"/>
       <c r="J81" s="8" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="K81" s="8" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="L81" s="8" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="M81" s="8" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="N81" s="8"/>
       <c r="O81" s="8" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="P81" s="8" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q81" s="8" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="R81" s="8"/>
     </row>
@@ -9050,42 +9441,42 @@
         <v>81</v>
       </c>
       <c r="D82" s="8" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="E82" s="8" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="F82" s="8" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="G82" s="8" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="H82" s="8" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="I82" s="8"/>
       <c r="J82" s="8" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="K82" s="8" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="L82" s="8" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="M82" s="8" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="N82" s="8"/>
       <c r="O82" s="8" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="P82" s="8" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q82" s="8" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="R82" s="8"/>
     </row>
@@ -9096,42 +9487,42 @@
         <v>82</v>
       </c>
       <c r="D83" s="8" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="E83" s="8" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="F83" s="8" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="G83" s="8" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="H83" s="8" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="I83" s="8"/>
       <c r="J83" s="8" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="K83" s="8" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="L83" s="8" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="M83" s="8" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="N83" s="8"/>
       <c r="O83" s="8" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="P83" s="8" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q83" s="8" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="R83" s="8"/>
     </row>
@@ -9142,42 +9533,42 @@
         <v>85</v>
       </c>
       <c r="D84" s="8" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="E84" s="8" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="F84" s="8" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="G84" s="8" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="H84" s="8" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="I84" s="8"/>
       <c r="J84" s="8" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="K84" s="8" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="L84" s="8" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="M84" s="8" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="N84" s="8"/>
       <c r="O84" s="8" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="P84" s="8" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q84" s="8" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="R84" s="8"/>
     </row>
@@ -9188,42 +9579,42 @@
         <v>86</v>
       </c>
       <c r="D85" s="8" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="E85" s="8" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="F85" s="8" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="G85" s="8" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="H85" s="8" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="I85" s="8"/>
       <c r="J85" s="8" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="K85" s="8" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="L85" s="8" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="M85" s="8" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="N85" s="8"/>
       <c r="O85" s="8" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="P85" s="8" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q85" s="8" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="R85" s="8"/>
     </row>
@@ -9234,42 +9625,42 @@
         <v>87</v>
       </c>
       <c r="D86" s="8" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="E86" s="8" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="F86" s="8" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="G86" s="8" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="H86" s="8" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="I86" s="8"/>
       <c r="J86" s="8" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="K86" s="8" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="L86" s="8" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="M86" s="8" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="N86" s="8"/>
       <c r="O86" s="8" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="P86" s="8" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q86" s="8" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="R86" s="8"/>
     </row>
